--- a/database_excel_files/AttendeeIdToCampId.xlsx
+++ b/database_excel_files/AttendeeIdToCampId.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\0xd1rac\Code\SC2002_Lab_Project\database_excel_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://entuedu-my.sharepoint.com/personal/c220096_e_ntu_edu_sg/Documents/Desktop/SC2002_Lab_Project-YQ1/database_excel_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A88EC07E-C827-45C0-A07E-56A23CB6E69F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{A88EC07E-C827-45C0-A07E-56A23CB6E69F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EA63A2DC-326A-4F67-AD5B-B7DA225336D0}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-10890" windowWidth="18240" windowHeight="28320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,18 +25,85 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="24">
   <si>
     <t>attendeeId</t>
   </si>
   <si>
     <t>campId</t>
+  </si>
+  <si>
+    <t>KUKU1</t>
+  </si>
+  <si>
+    <t>aeebf47a69a24d0e863c39e58066d611</t>
+  </si>
+  <si>
+    <t>KUKU123</t>
+  </si>
+  <si>
+    <t>b6d43c568bb647539135919c8c4eefd0</t>
+  </si>
+  <si>
+    <t>0c2f901a1f0348b49c9769fad9e1f702</t>
+  </si>
+  <si>
+    <t>c840388de3004a1480144eb7370695ba</t>
+  </si>
+  <si>
+    <t>47314cc237fe4507bc2269fdfc4e9772</t>
+  </si>
+  <si>
+    <t>027d823b7ed44ac390eaa7cb17fd2a02</t>
+  </si>
+  <si>
+    <t>KUKU1asd</t>
+  </si>
+  <si>
+    <t>fd24f46687d448a296b6786b791388ed</t>
+  </si>
+  <si>
+    <t>KUKU12asd3</t>
+  </si>
+  <si>
+    <t>0de8b74b4e09469d8cf55e0997e6a701</t>
+  </si>
+  <si>
+    <t>KUKU1asdland</t>
+  </si>
+  <si>
+    <t>KUKU12asd3land</t>
+  </si>
+  <si>
+    <t>9f0c6278fc33441a8fc36b7420ff2c07</t>
+  </si>
+  <si>
+    <t>0423df356e6748d3b7f3e0690d78a8a9</t>
+  </si>
+  <si>
+    <t>fcffe2d0a69b4908a3640c18083f84d5</t>
+  </si>
+  <si>
+    <t>039db9e496084ac4bfed88743537bbf6</t>
+  </si>
+  <si>
+    <t>05e5e6f46e454764927d10f9575b5dfb</t>
+  </si>
+  <si>
+    <t>0bef7fa6725e41c5bd0be19523c55739</t>
+  </si>
+  <si>
+    <t>3750072e73a441d89a3f51849b355c9e</t>
+  </si>
+  <si>
+    <t>cbf1a4c4cfd441a7b11d17e750fc15e2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -348,27 +415,299 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A8" sqref="A2:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" customWidth="1"/>
-    <col min="3" max="3" width="27.42578125" customWidth="1"/>
-    <col min="4" max="4" width="22.42578125" customWidth="1"/>
-    <col min="5" max="5" width="21.85546875" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="22.5703125"/>
+    <col min="2" max="2" customWidth="true" width="26.85546875"/>
+    <col min="3" max="3" customWidth="true" width="27.42578125"/>
+    <col min="4" max="4" customWidth="true" width="22.42578125"/>
+    <col min="5" max="5" customWidth="true" width="21.85546875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B22" t="s" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B23" t="s" s="0">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B24" t="s" s="0">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B25" t="s" s="0">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B26" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B27" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B28" t="s" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B29" t="s" s="0">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B30" t="s" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B31" t="s" s="0">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B32" t="s" s="0">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B33" t="s" s="0">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B34" t="s" s="0">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B35" t="s" s="0">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/database_excel_files/AttendeeIdToCampId.xlsx
+++ b/database_excel_files/AttendeeIdToCampId.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="25">
   <si>
     <t>attendeeId</t>
   </si>
@@ -97,6 +97,9 @@
   </si>
   <si>
     <t>cbf1a4c4cfd441a7b11d17e750fc15e2</t>
+  </si>
+  <si>
+    <t>isWithdrawn</t>
   </si>
 </sst>
 </file>
@@ -415,7 +418,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A8" sqref="A2:XFD8"/>
@@ -437,6 +440,9 @@
       <c r="B1" t="s" s="0">
         <v>1</v>
       </c>
+      <c r="C1" t="s" s="0">
+        <v>24</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
@@ -445,6 +451,9 @@
       <c r="B2" t="s" s="0">
         <v>3</v>
       </c>
+      <c r="C2" t="b" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
@@ -453,6 +462,9 @@
       <c r="B3" t="s" s="0">
         <v>3</v>
       </c>
+      <c r="C3" t="b" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
@@ -461,6 +473,9 @@
       <c r="B4" t="s" s="0">
         <v>5</v>
       </c>
+      <c r="C4" t="b" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
@@ -469,6 +484,9 @@
       <c r="B5" t="s" s="0">
         <v>5</v>
       </c>
+      <c r="C5" t="b" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
@@ -477,6 +495,9 @@
       <c r="B6" t="s" s="0">
         <v>6</v>
       </c>
+      <c r="C6" t="b" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
@@ -485,6 +506,9 @@
       <c r="B7" t="s" s="0">
         <v>6</v>
       </c>
+      <c r="C7" t="b" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
@@ -493,6 +517,9 @@
       <c r="B8" t="s" s="0">
         <v>7</v>
       </c>
+      <c r="C8" t="b" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
@@ -501,6 +528,9 @@
       <c r="B9" t="s" s="0">
         <v>7</v>
       </c>
+      <c r="C9" t="b" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
@@ -509,6 +539,9 @@
       <c r="B10" t="s" s="0">
         <v>8</v>
       </c>
+      <c r="C10" t="b" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
@@ -517,6 +550,9 @@
       <c r="B11" t="s" s="0">
         <v>8</v>
       </c>
+      <c r="C11" t="b" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
@@ -525,6 +561,9 @@
       <c r="B12" t="s" s="0">
         <v>9</v>
       </c>
+      <c r="C12" t="b" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
@@ -533,6 +572,9 @@
       <c r="B13" t="s" s="0">
         <v>9</v>
       </c>
+      <c r="C13" t="b" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
@@ -541,6 +583,9 @@
       <c r="B14" t="s" s="0">
         <v>11</v>
       </c>
+      <c r="C14" t="b" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
@@ -549,6 +594,9 @@
       <c r="B15" t="s" s="0">
         <v>11</v>
       </c>
+      <c r="C15" t="b" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
@@ -557,6 +605,9 @@
       <c r="B16" t="s" s="0">
         <v>13</v>
       </c>
+      <c r="C16" t="b" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
@@ -565,6 +616,9 @@
       <c r="B17" t="s" s="0">
         <v>13</v>
       </c>
+      <c r="C17" t="b" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
@@ -573,6 +627,9 @@
       <c r="B18" t="s" s="0">
         <v>13</v>
       </c>
+      <c r="C18" t="b" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
@@ -581,6 +638,9 @@
       <c r="B19" t="s" s="0">
         <v>13</v>
       </c>
+      <c r="C19" t="b" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
@@ -589,6 +649,9 @@
       <c r="B20" t="s" s="0">
         <v>16</v>
       </c>
+      <c r="C20" t="b" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
@@ -597,6 +660,9 @@
       <c r="B21" t="s" s="0">
         <v>16</v>
       </c>
+      <c r="C21" t="b" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
@@ -605,6 +671,9 @@
       <c r="B22" t="s" s="0">
         <v>17</v>
       </c>
+      <c r="C22" t="b" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
@@ -613,6 +682,9 @@
       <c r="B23" t="s" s="0">
         <v>17</v>
       </c>
+      <c r="C23" t="b" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
@@ -621,6 +693,9 @@
       <c r="B24" t="s" s="0">
         <v>18</v>
       </c>
+      <c r="C24" t="b" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
@@ -629,6 +704,9 @@
       <c r="B25" t="s" s="0">
         <v>18</v>
       </c>
+      <c r="C25" t="b" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
@@ -637,6 +715,9 @@
       <c r="B26" t="s" s="0">
         <v>19</v>
       </c>
+      <c r="C26" t="b" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
@@ -645,6 +726,9 @@
       <c r="B27" t="s" s="0">
         <v>19</v>
       </c>
+      <c r="C27" t="b" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
@@ -653,6 +737,9 @@
       <c r="B28" t="s" s="0">
         <v>20</v>
       </c>
+      <c r="C28" t="b" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
@@ -661,6 +748,9 @@
       <c r="B29" t="s" s="0">
         <v>20</v>
       </c>
+      <c r="C29" t="b" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
@@ -669,6 +759,9 @@
       <c r="B30" t="s" s="0">
         <v>21</v>
       </c>
+      <c r="C30" t="b" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
@@ -677,6 +770,9 @@
       <c r="B31" t="s" s="0">
         <v>21</v>
       </c>
+      <c r="C31" t="b" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
@@ -685,6 +781,9 @@
       <c r="B32" t="s" s="0">
         <v>22</v>
       </c>
+      <c r="C32" t="b" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
@@ -693,6 +792,9 @@
       <c r="B33" t="s" s="0">
         <v>22</v>
       </c>
+      <c r="C33" t="b" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
@@ -701,6 +803,9 @@
       <c r="B34" t="s" s="0">
         <v>23</v>
       </c>
+      <c r="C34" t="b" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
@@ -708,6 +813,9 @@
       </c>
       <c r="B35" t="s" s="0">
         <v>23</v>
+      </c>
+      <c r="C35" t="b" s="0">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/database_excel_files/AttendeeIdToCampId.xlsx
+++ b/database_excel_files/AttendeeIdToCampId.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>attendeeId</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>isWithdrawn</t>
+  </si>
+  <si>
+    <t>C133313</t>
+  </si>
+  <si>
+    <t>abcde</t>
   </si>
 </sst>
 </file>
@@ -369,15 +375,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="2" width="22.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="2" width="26.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="2" width="27.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="22.576428571428572"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="26.862142857142857"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="27.433571428571426"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -391,6 +397,17 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>4</v>
+      </c>
+      <c r="C2" t="b" s="2">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/database_excel_files/AttendeeIdToCampId.xlsx
+++ b/database_excel_files/AttendeeIdToCampId.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\angyu\Desktop\Uni stuff\Y2 SEM1\SC2002 - Obj Oriented Des &amp; Prog\Group project\SC2002_Lab_Project-main (9)\SC2002_Lab_Project-main\database_excel_files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0696ADCE-F132-4B77-A652-180CE40F538C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>attendeeId</t>
   </si>
@@ -24,18 +30,11 @@
   <si>
     <t>isWithdrawn</t>
   </si>
-  <si>
-    <t>C133313</t>
-  </si>
-  <si>
-    <t>abcde</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -65,23 +64,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
+  <cellXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -92,10 +88,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -133,71 +129,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -225,7 +221,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -248,11 +244,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -261,13 +257,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -277,7 +273,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -286,7 +282,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -295,7 +291,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -303,10 +299,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -371,41 +367,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="22.576428571428572"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="26.862142857142857"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="27.433571428571426"/>
+    <col min="1" max="1" width="22.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="2">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s" s="2">
-        <v>4</v>
-      </c>
-      <c r="C2" t="b" s="2">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
